--- a/biology/Zoologie/Aigle_huppard/Aigle_huppard.xlsx
+++ b/biology/Zoologie/Aigle_huppard/Aigle_huppard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophaetus occipitalis
 L’Aigle huppard (Lophaetus occipitalis), est une espèce de rapacede la famille des Accipitridae. L'espèce est endémique à l'Afrique subsaharienne. C'est une espèce monotypique, la seule du genre Lophaetus. Il peut arriver qu'on le confonde avec l'Aigle huppé à cause de leur nom mais aussi de leur huppe.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient tout simplement de la huppe qu'il a sur la tête. Le mot huppe a donc seulement donné "huppard".
 </t>
@@ -543,7 +557,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aigle Huppard est endémique de l'Afrique subsaharienne. On le trouve dans les zones boisées et cultivées et dans les terres découvertes, à condition qu'il y ait des arbres. Il vit du niveau de la mer jusqu'à 3 000 mètres de haut. Son territoire s'étend de l'Éthiopie jusqu'au Sénégal et vers le Sud jusqu'au Cap. On le trouve aussi dans le sud du Sahara.
 </t>
@@ -574,7 +590,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aigle Huppard se nourrit principalement de petits rongeurs, mais il n'est pas rare de le voir capturer un poulet ou autre volaille à l'occasion.
 </t>
@@ -605,7 +623,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau relativement petit (55 cm). Le mâle peut atteindre un poids de 0,9 à 1,4 kg et la femelle 1,4-1,5 kg. Il est connu pour sa grande crête (composée d'environ 5 plumes). Il est noir ou brun foncé. Il a deux longues tâches situées à la jointure des ailes (visible quand il est perché) qui forment deux lignes blanches de part et d'autre de sa poitrine. Il n'y a pas vraiment de différences notables entre le mâle et la femelle, cependant les jeunes ont un pelage plus clair et une crête moins importante.
 </t>
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La couvée se compose d'un ou deux œufs d'une couleur blanche à brune et sont tachetés. La période d'incubation dure environ 42 jours, les jeunes aigles quittent le nid après 53-58 jours.
 </t>
